--- a/rozpisy.xlsx
+++ b/rozpisy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\it_pgm\RK\www\fotbal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AFF6C-CDBC-4C8B-8B81-26093BB54CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC9201-D571-4111-819C-11C6563EE671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{F5293118-E1DF-4B31-93B2-199093FE844B}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +686,9 @@
       <c r="J4" s="1">
         <v>9</v>
       </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
       <c r="M4" s="4">
         <f>IF(ISODD(M3),IF(M3&lt;=15,M3,M3-15),IF(M3&lt;15,M3+15,M3))</f>
         <v>16</v>
@@ -837,6 +840,10 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="K7" s="1">
+        <f>$K$4*B6</f>
+        <v>16</v>
+      </c>
       <c r="M7" s="8">
         <f>IF(ISODD(M6),IF(M6&lt;=15,M6,M6-15),IF(M6&lt;15,M6+15,M6))</f>
         <v>2</v>
@@ -990,6 +997,10 @@
       <c r="J10" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
+      </c>
+      <c r="K10" s="1">
+        <f>$K$4*B9</f>
+        <v>24</v>
       </c>
       <c r="M10" s="4">
         <f>IF(ISODD(M9),IF(M9&lt;=15,M9,M9-15),IF(M9&lt;15,M9+15,M9))</f>
@@ -1135,6 +1146,10 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
+      <c r="K13" s="1">
+        <f>$K$4*B12</f>
+        <v>32</v>
+      </c>
       <c r="M13" s="4">
         <f>IF(ISODD(M12),IF(M12&lt;=15,M12,M12-15),IF(M12&lt;15,M12+15,M12))</f>
         <v>4</v>
@@ -1278,6 +1293,10 @@
       <c r="J16" s="1">
         <f t="shared" si="14"/>
         <v>13</v>
+      </c>
+      <c r="K16" s="1">
+        <f>$K$4*B15</f>
+        <v>40</v>
       </c>
       <c r="M16" s="4">
         <f>IF(ISODD(M15),IF(M15&lt;=15,M15,M15-15),IF(M15&lt;15,M15+15,M15))</f>
@@ -1423,6 +1442,10 @@
         <f t="shared" si="18"/>
         <v>14</v>
       </c>
+      <c r="K19" s="1">
+        <f>$K$4*B18</f>
+        <v>48</v>
+      </c>
       <c r="M19" s="4">
         <f>IF(ISODD(M18),IF(M18&lt;=15,M18,M18-15),IF(M18&lt;15,M18+15,M18))</f>
         <v>6</v>
@@ -1566,6 +1589,10 @@
       <c r="J22" s="1">
         <f t="shared" si="22"/>
         <v>15</v>
+      </c>
+      <c r="K22" s="1">
+        <f>$K$4*B21</f>
+        <v>56</v>
       </c>
       <c r="M22" s="4">
         <f>IF(ISODD(M21),IF(M21&lt;=15,M21,M21-15),IF(M21&lt;15,M21+15,M21))</f>
@@ -1711,6 +1738,10 @@
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
+      <c r="K25" s="1">
+        <f>$K$4*B24</f>
+        <v>64</v>
+      </c>
       <c r="M25" s="4">
         <f>IF(ISODD(M24),IF(M24&lt;=15,M24,M24-15),IF(M24&lt;15,M24+15,M24))</f>
         <v>8</v>
@@ -1854,6 +1885,10 @@
       <c r="J28" s="1">
         <f t="shared" si="30"/>
         <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f>$K$4*B27</f>
+        <v>72</v>
       </c>
       <c r="M28" s="4">
         <f>IF(ISODD(M27),IF(M27&lt;=15,M27,M27-15),IF(M27&lt;15,M27+15,M27))</f>
@@ -1999,6 +2034,10 @@
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
+      <c r="K31" s="1">
+        <f>$K$4*B30</f>
+        <v>80</v>
+      </c>
       <c r="M31" s="4">
         <f>IF(ISODD(M30),IF(M30&lt;=15,M30,M30-15),IF(M30&lt;15,M30+15,M30))</f>
         <v>10</v>
@@ -2142,6 +2181,10 @@
       <c r="J34" s="1">
         <f t="shared" si="38"/>
         <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <f>$K$4*B33</f>
+        <v>88</v>
       </c>
       <c r="M34" s="4">
         <f>IF(ISODD(M33),IF(M33&lt;=15,M33,M33-15),IF(M33&lt;15,M33+15,M33))</f>
@@ -2287,6 +2330,10 @@
         <f t="shared" si="42"/>
         <v>5</v>
       </c>
+      <c r="K37" s="1">
+        <f>$K$4*B36</f>
+        <v>96</v>
+      </c>
       <c r="M37" s="4">
         <f>IF(ISODD(M36),IF(M36&lt;=15,M36,M36-15),IF(M36&lt;15,M36+15,M36))</f>
         <v>12</v>
@@ -2430,6 +2477,10 @@
       <c r="J40" s="1">
         <f t="shared" si="46"/>
         <v>6</v>
+      </c>
+      <c r="K40" s="1">
+        <f>$K$4*B39</f>
+        <v>104</v>
       </c>
       <c r="M40" s="4">
         <f>IF(ISODD(M39),IF(M39&lt;=15,M39,M39-15),IF(M39&lt;15,M39+15,M39))</f>
@@ -2575,6 +2626,10 @@
         <f t="shared" si="50"/>
         <v>7</v>
       </c>
+      <c r="K43" s="1">
+        <f>$K$4*B42</f>
+        <v>112</v>
+      </c>
       <c r="M43" s="4">
         <f>IF(ISODD(M42),IF(M42&lt;=15,M42,M42-15),IF(M42&lt;15,M42+15,M42))</f>
         <v>14</v>
@@ -2718,6 +2773,10 @@
       <c r="J46" s="1">
         <f t="shared" si="54"/>
         <v>8</v>
+      </c>
+      <c r="K46" s="1">
+        <f>$K$4*B45</f>
+        <v>120</v>
       </c>
       <c r="M46" s="4">
         <f>IF(ISODD(M45),IF(M45&lt;=15,M45,M45-15),IF(M45&lt;15,M45+15,M45))</f>

--- a/rozpisy.xlsx
+++ b/rozpisy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\it_pgm\RK\www\fotbal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC9201-D571-4111-819C-11C6563EE671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86C970-58D8-43E6-966D-3C0B557C303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{F5293118-E1DF-4B31-93B2-199093FE844B}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,10 @@
       <c r="K4" s="1">
         <v>8</v>
       </c>
+      <c r="L4" s="1">
+        <f>K4+$K$46</f>
+        <v>128</v>
+      </c>
       <c r="M4" s="4">
         <f>IF(ISODD(M3),IF(M3&lt;=15,M3,M3-15),IF(M3&lt;15,M3+15,M3))</f>
         <v>16</v>
@@ -844,6 +848,10 @@
         <f>$K$4*B6</f>
         <v>16</v>
       </c>
+      <c r="L7" s="1">
+        <f>K7+$K$46</f>
+        <v>136</v>
+      </c>
       <c r="M7" s="8">
         <f>IF(ISODD(M6),IF(M6&lt;=15,M6,M6-15),IF(M6&lt;15,M6+15,M6))</f>
         <v>2</v>
@@ -1001,6 +1009,10 @@
       <c r="K10" s="1">
         <f>$K$4*B9</f>
         <v>24</v>
+      </c>
+      <c r="L10" s="1">
+        <f>K10+$K$46</f>
+        <v>144</v>
       </c>
       <c r="M10" s="4">
         <f>IF(ISODD(M9),IF(M9&lt;=15,M9,M9-15),IF(M9&lt;15,M9+15,M9))</f>
@@ -1150,6 +1162,10 @@
         <f>$K$4*B12</f>
         <v>32</v>
       </c>
+      <c r="L13" s="1">
+        <f>K13+$K$46</f>
+        <v>152</v>
+      </c>
       <c r="M13" s="4">
         <f>IF(ISODD(M12),IF(M12&lt;=15,M12,M12-15),IF(M12&lt;15,M12+15,M12))</f>
         <v>4</v>
@@ -1297,6 +1313,10 @@
       <c r="K16" s="1">
         <f>$K$4*B15</f>
         <v>40</v>
+      </c>
+      <c r="L16" s="1">
+        <f>K16+$K$46</f>
+        <v>160</v>
       </c>
       <c r="M16" s="4">
         <f>IF(ISODD(M15),IF(M15&lt;=15,M15,M15-15),IF(M15&lt;15,M15+15,M15))</f>
@@ -1446,6 +1466,10 @@
         <f>$K$4*B18</f>
         <v>48</v>
       </c>
+      <c r="L19" s="1">
+        <f>K19+$K$46</f>
+        <v>168</v>
+      </c>
       <c r="M19" s="4">
         <f>IF(ISODD(M18),IF(M18&lt;=15,M18,M18-15),IF(M18&lt;15,M18+15,M18))</f>
         <v>6</v>
@@ -1593,6 +1617,10 @@
       <c r="K22" s="1">
         <f>$K$4*B21</f>
         <v>56</v>
+      </c>
+      <c r="L22" s="1">
+        <f>K22+$K$46</f>
+        <v>176</v>
       </c>
       <c r="M22" s="4">
         <f>IF(ISODD(M21),IF(M21&lt;=15,M21,M21-15),IF(M21&lt;15,M21+15,M21))</f>
@@ -1742,6 +1770,10 @@
         <f>$K$4*B24</f>
         <v>64</v>
       </c>
+      <c r="L25" s="1">
+        <f>K25+$K$46</f>
+        <v>184</v>
+      </c>
       <c r="M25" s="4">
         <f>IF(ISODD(M24),IF(M24&lt;=15,M24,M24-15),IF(M24&lt;15,M24+15,M24))</f>
         <v>8</v>
@@ -1889,6 +1921,10 @@
       <c r="K28" s="1">
         <f>$K$4*B27</f>
         <v>72</v>
+      </c>
+      <c r="L28" s="1">
+        <f>K28+$K$46</f>
+        <v>192</v>
       </c>
       <c r="M28" s="4">
         <f>IF(ISODD(M27),IF(M27&lt;=15,M27,M27-15),IF(M27&lt;15,M27+15,M27))</f>
@@ -2038,6 +2074,10 @@
         <f>$K$4*B30</f>
         <v>80</v>
       </c>
+      <c r="L31" s="1">
+        <f>K31+$K$46</f>
+        <v>200</v>
+      </c>
       <c r="M31" s="4">
         <f>IF(ISODD(M30),IF(M30&lt;=15,M30,M30-15),IF(M30&lt;15,M30+15,M30))</f>
         <v>10</v>
@@ -2185,6 +2225,10 @@
       <c r="K34" s="1">
         <f>$K$4*B33</f>
         <v>88</v>
+      </c>
+      <c r="L34" s="1">
+        <f>K34+$K$46</f>
+        <v>208</v>
       </c>
       <c r="M34" s="4">
         <f>IF(ISODD(M33),IF(M33&lt;=15,M33,M33-15),IF(M33&lt;15,M33+15,M33))</f>
@@ -2334,6 +2378,10 @@
         <f>$K$4*B36</f>
         <v>96</v>
       </c>
+      <c r="L37" s="1">
+        <f>K37+$K$46</f>
+        <v>216</v>
+      </c>
       <c r="M37" s="4">
         <f>IF(ISODD(M36),IF(M36&lt;=15,M36,M36-15),IF(M36&lt;15,M36+15,M36))</f>
         <v>12</v>
@@ -2481,6 +2529,10 @@
       <c r="K40" s="1">
         <f>$K$4*B39</f>
         <v>104</v>
+      </c>
+      <c r="L40" s="1">
+        <f>K40+$K$46</f>
+        <v>224</v>
       </c>
       <c r="M40" s="4">
         <f>IF(ISODD(M39),IF(M39&lt;=15,M39,M39-15),IF(M39&lt;15,M39+15,M39))</f>
@@ -2630,6 +2682,10 @@
         <f>$K$4*B42</f>
         <v>112</v>
       </c>
+      <c r="L43" s="1">
+        <f>K43+$K$46</f>
+        <v>232</v>
+      </c>
       <c r="M43" s="4">
         <f>IF(ISODD(M42),IF(M42&lt;=15,M42,M42-15),IF(M42&lt;15,M42+15,M42))</f>
         <v>14</v>
@@ -2777,6 +2833,10 @@
       <c r="K46" s="1">
         <f>$K$4*B45</f>
         <v>120</v>
+      </c>
+      <c r="L46" s="1">
+        <f>K46+$K$46</f>
+        <v>240</v>
       </c>
       <c r="M46" s="4">
         <f>IF(ISODD(M45),IF(M45&lt;=15,M45,M45-15),IF(M45&lt;15,M45+15,M45))</f>

--- a/rozpisy.xlsx
+++ b/rozpisy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\it_pgm\RK\www\fotbal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D86C970-58D8-43E6-966D-3C0B557C303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20DB10-A18D-4BF6-8DC6-AC95DFC60B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{F5293118-E1DF-4B31-93B2-199093FE844B}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
